--- a/Template_task.xlsx
+++ b/Template_task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdtro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d5c1479abb6e1df/Documents/CyberSoft/fe/react/Capstone_React/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6F005F-2D0A-4DD3-A81A-721211FBA877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{BC6F005F-2D0A-4DD3-A81A-721211FBA877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6FFE3AC-B10A-4B88-8326-99BA7EE7E492}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>15/08/2025</t>
   </si>
   <si>
     <t>AdminTemplate</t>
@@ -267,24 +264,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -298,9 +279,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,6 +311,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,7 +548,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -565,365 +558,365 @@
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45885</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9">
+      <c r="F2" s="3">
+        <v>45886</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45886</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
         <v>45877</v>
       </c>
-      <c r="C2" s="9">
-        <v>45877</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="C3" s="3">
+        <v>45885</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="F3" s="3">
+        <v>45886</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45886</v>
+      </c>
+      <c r="H3" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9">
-        <v>45877</v>
-      </c>
-      <c r="C3" s="9">
-        <v>45877</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="19"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="19"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="19"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
